--- a/data.xlsx
+++ b/data.xlsx
@@ -4,19 +4,21 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="400" yWindow="80" windowWidth="13410" windowHeight="4200" activeTab="2"/>
+    <workbookView xWindow="400" yWindow="80" windowWidth="13410" windowHeight="4200" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="25%" sheetId="1" r:id="rId1"/>
     <sheet name="50%" sheetId="2" r:id="rId2"/>
     <sheet name="75%" sheetId="3" r:id="rId3"/>
+    <sheet name="ana#5" sheetId="4" r:id="rId4"/>
+    <sheet name="只测了equalizer的ana#5" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="9">
   <si>
     <t>250Hz</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -43,6 +45,14 @@
   </si>
   <si>
     <t>4kHz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vpp-in</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vpp-out</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -98,7 +108,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -108,6 +118,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -115,6 +128,448 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="zh-CN"/>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'ana#5'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'ana#5'!$A$2:$A$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'ana#5'!$D$2:$D$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>1.4107142857142858</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.2363636363636363</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.6363636363636367</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13.333333333333334</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18.181818181818183</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20.714285714285715</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21.428571428571427</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>21.785714285714285</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>21.964285714285715</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>21.03448275862069</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20.17543859649123</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>14.642857142857142</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7.6785714285714288</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.7142857142857144</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.40714285714285714</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.10714285714285714</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="112053632"/>
+        <c:axId val="116196480"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="112053632"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="116196480"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="116196480"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="112053632"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="zh-CN"/>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'只测了equalizer的ana#5'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'只测了equalizer的ana#5'!$A$2:$A$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'只测了equalizer的ana#5'!$D$2:$D$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0.5982142857142857</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.96363636363636362</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.9454545454545455</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.3636363636363638</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.7272727272727275</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.5357142857142856</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.7142857142857144</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.5172413793103452</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.6896551724137927</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.6034482758620694</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.7894736842105265</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.3508771929824563</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.3859649122807021</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.6896551724137931</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.375</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="116233728"/>
+        <c:axId val="116235264"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="116233728"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="116235264"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="116235264"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="116233728"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>393700</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="图表 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1274,8 +1729,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -1703,4 +2158,540 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="9.26953125" style="3" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="3">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>224</v>
+      </c>
+      <c r="C2">
+        <v>316</v>
+      </c>
+      <c r="D2">
+        <f>C2/B2</f>
+        <v>1.4107142857142858</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="3">
+        <v>20</v>
+      </c>
+      <c r="B3">
+        <v>220</v>
+      </c>
+      <c r="C3">
+        <v>712</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D17" si="0">C3/B3</f>
+        <v>3.2363636363636363</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="3">
+        <v>50</v>
+      </c>
+      <c r="B4">
+        <v>220</v>
+      </c>
+      <c r="C4">
+        <v>1680</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>7.6363636363636367</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="3">
+        <v>100</v>
+      </c>
+      <c r="B5">
+        <v>216</v>
+      </c>
+      <c r="C5">
+        <v>2880</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>13.333333333333334</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="3">
+        <v>200</v>
+      </c>
+      <c r="B6">
+        <v>220</v>
+      </c>
+      <c r="C6">
+        <v>4000</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>18.181818181818183</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="3">
+        <v>500</v>
+      </c>
+      <c r="B7">
+        <v>224</v>
+      </c>
+      <c r="C7">
+        <v>4640</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>20.714285714285715</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="3">
+        <v>1000</v>
+      </c>
+      <c r="B8">
+        <v>224</v>
+      </c>
+      <c r="C8">
+        <v>4800</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>21.428571428571427</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="3">
+        <v>2000</v>
+      </c>
+      <c r="B9">
+        <v>224</v>
+      </c>
+      <c r="C9">
+        <v>4880</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>21.785714285714285</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="3">
+        <v>5000</v>
+      </c>
+      <c r="B10">
+        <v>224</v>
+      </c>
+      <c r="C10">
+        <v>4920</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>21.964285714285715</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="3">
+        <v>10000</v>
+      </c>
+      <c r="B11">
+        <v>232</v>
+      </c>
+      <c r="C11">
+        <v>4880</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>21.03448275862069</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="3">
+        <v>20000</v>
+      </c>
+      <c r="B12">
+        <v>228</v>
+      </c>
+      <c r="C12">
+        <v>4600</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>20.17543859649123</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="3">
+        <v>50000</v>
+      </c>
+      <c r="B13">
+        <v>224</v>
+      </c>
+      <c r="C13">
+        <v>3280</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>14.642857142857142</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="3">
+        <v>100000</v>
+      </c>
+      <c r="B14">
+        <v>224</v>
+      </c>
+      <c r="C14">
+        <v>1720</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>7.6785714285714288</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="3">
+        <v>200000</v>
+      </c>
+      <c r="B15">
+        <v>224</v>
+      </c>
+      <c r="C15">
+        <v>608</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>2.7142857142857144</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="3">
+        <v>500000</v>
+      </c>
+      <c r="B16">
+        <v>224</v>
+      </c>
+      <c r="C16">
+        <v>91.2</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>0.40714285714285714</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="3">
+        <v>1000000</v>
+      </c>
+      <c r="B17">
+        <v>224</v>
+      </c>
+      <c r="C17">
+        <v>24</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>0.10714285714285714</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="9.26953125" style="3" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="3">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>224</v>
+      </c>
+      <c r="C2">
+        <v>134</v>
+      </c>
+      <c r="D2">
+        <f>C2/B2</f>
+        <v>0.5982142857142857</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="3">
+        <v>20</v>
+      </c>
+      <c r="B3">
+        <v>220</v>
+      </c>
+      <c r="C3">
+        <v>212</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D17" si="0">C3/B3</f>
+        <v>0.96363636363636362</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="3">
+        <v>50</v>
+      </c>
+      <c r="B4">
+        <v>220</v>
+      </c>
+      <c r="C4">
+        <v>428</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>1.9454545454545455</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="3">
+        <v>100</v>
+      </c>
+      <c r="B5">
+        <v>220</v>
+      </c>
+      <c r="C5">
+        <v>740</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>3.3636363636363638</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="3">
+        <v>200</v>
+      </c>
+      <c r="B6">
+        <v>220</v>
+      </c>
+      <c r="C6">
+        <v>1040</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>4.7272727272727275</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="3">
+        <v>500</v>
+      </c>
+      <c r="B7">
+        <v>224</v>
+      </c>
+      <c r="C7">
+        <v>1240</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>5.5357142857142856</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="3">
+        <v>1000</v>
+      </c>
+      <c r="B8">
+        <v>224</v>
+      </c>
+      <c r="C8">
+        <v>1280</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>5.7142857142857144</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="3">
+        <v>2000</v>
+      </c>
+      <c r="B9">
+        <v>232</v>
+      </c>
+      <c r="C9">
+        <v>1280</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>5.5172413793103452</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="3">
+        <v>5000</v>
+      </c>
+      <c r="B10">
+        <v>232</v>
+      </c>
+      <c r="C10">
+        <v>1320</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>5.6896551724137927</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="3">
+        <v>10000</v>
+      </c>
+      <c r="B11">
+        <v>232</v>
+      </c>
+      <c r="C11">
+        <v>1300</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>5.6034482758620694</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="3">
+        <v>20000</v>
+      </c>
+      <c r="B12">
+        <v>228</v>
+      </c>
+      <c r="C12">
+        <v>1320</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>5.7894736842105265</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="3">
+        <v>50000</v>
+      </c>
+      <c r="B13">
+        <v>228</v>
+      </c>
+      <c r="C13">
+        <v>1220</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>5.3508771929824563</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="3">
+        <v>100000</v>
+      </c>
+      <c r="B14">
+        <v>228</v>
+      </c>
+      <c r="C14">
+        <v>1000</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>4.3859649122807021</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="3">
+        <v>200000</v>
+      </c>
+      <c r="B15">
+        <v>232</v>
+      </c>
+      <c r="C15">
+        <v>624</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>2.6896551724137931</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="3">
+        <v>500000</v>
+      </c>
+      <c r="B16">
+        <v>232</v>
+      </c>
+      <c r="C16">
+        <v>232</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="3">
+        <v>1000000</v>
+      </c>
+      <c r="B17">
+        <v>224</v>
+      </c>
+      <c r="C17">
+        <v>84</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>0.375</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18229"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Togem\Desktop\UW\EE233lab4\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="400" yWindow="80" windowWidth="13410" windowHeight="4200" activeTab="4"/>
   </bookViews>
@@ -13,12 +18,12 @@
     <sheet name="ana#5" sheetId="4" r:id="rId4"/>
     <sheet name="只测了equalizer的ana#5" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="12">
   <si>
     <t>250Hz</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -55,12 +60,24 @@
     <t>Vpp-out</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>Gain(dB)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gain(dB)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gain(dB)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -127,20 +144,40 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -271,7 +308,21 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BB7F-4200-8A6F-2AB410B0F93C}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:axId val="112053632"/>
         <c:axId val="116196480"/>
       </c:scatterChart>
@@ -281,8 +332,11 @@
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="116196480"/>
         <c:crosses val="autoZero"/>
@@ -293,9 +347,12 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="112053632"/>
         <c:crosses val="autoZero"/>
@@ -304,9 +361,11 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -317,16 +376,28 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -457,7 +528,21 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FEFE-42FA-92DA-5A5DA8C078F6}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:axId val="116233728"/>
         <c:axId val="116235264"/>
       </c:scatterChart>
@@ -467,8 +552,11 @@
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="116235264"/>
         <c:crosses val="autoZero"/>
@@ -479,9 +567,12 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="116233728"/>
         <c:crosses val="autoZero"/>
@@ -490,9 +581,11 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -506,20 +599,26 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>88900</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>31750</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>393700</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>107950</xdr:rowOff>
+      <xdr:rowOff>31750</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="图表 1"/>
+        <xdr:cNvPr id="2" name="图表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -554,7 +653,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="图表 2"/>
+        <xdr:cNvPr id="3" name="图表 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -573,7 +678,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -615,7 +720,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -647,9 +752,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -681,6 +804,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -856,16 +997,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D37"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection sqref="A1:D37"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -878,8 +1019,11 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -892,8 +1036,12 @@
       <c r="D2" s="1">
         <v>232</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2">
+        <f>20*LOG10(D2/C2)</f>
+        <v>0.30479933113473812</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>20</v>
       </c>
@@ -903,8 +1051,12 @@
       <c r="D3">
         <v>236</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <f t="shared" ref="E3:E37" si="0">20*LOG10(D3/C3)</f>
+        <v>0.14848036158413749</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>50</v>
       </c>
@@ -914,8 +1066,12 @@
       <c r="D4">
         <v>252</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>0.71825111781288897</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>100</v>
       </c>
@@ -925,8 +1081,12 @@
       <c r="D5">
         <v>280</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>1.9382002601611283</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>200</v>
       </c>
@@ -936,8 +1096,12 @@
       <c r="D6">
         <v>356</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>4.1805463430133791</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>500</v>
       </c>
@@ -947,8 +1111,12 @@
       <c r="D7">
         <v>368</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>4.4685027570262283</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>1000</v>
       </c>
@@ -958,8 +1126,12 @@
       <c r="D8">
         <v>280</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>1.1953641000697954</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>2000</v>
       </c>
@@ -969,8 +1141,12 @@
       <c r="D9">
         <v>248</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>0.57927391870633116</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>5000</v>
       </c>
@@ -980,8 +1156,12 @@
       <c r="D10">
         <v>244</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>0.43803682895659496</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>10000</v>
       </c>
@@ -991,8 +1171,12 @@
       <c r="D11">
         <v>240</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>0.29446513641412758</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>20000</v>
       </c>
@@ -1002,8 +1186,12 @@
       <c r="D12">
         <v>224</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>-0.5992644675488642</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>50000</v>
       </c>
@@ -1013,8 +1201,12 @@
       <c r="D13">
         <v>228</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>-0.15106275780891798</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>5</v>
       </c>
@@ -1027,8 +1219,12 @@
       <c r="D14" s="1">
         <v>232</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>0.30479933113473812</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>20</v>
       </c>
@@ -1038,8 +1234,12 @@
       <c r="D15" s="2">
         <v>228</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>50</v>
       </c>
@@ -1049,8 +1249,12 @@
       <c r="D16" s="2">
         <v>224</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>0.15650675023913052</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>100</v>
       </c>
@@ -1060,8 +1264,12 @@
       <c r="D17" s="2">
         <v>236</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>0.45327969271887569</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>200</v>
       </c>
@@ -1071,8 +1279,12 @@
       <c r="D18" s="2">
         <v>268</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>1.7142422641316524</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>500</v>
       </c>
@@ -1082,8 +1294,12 @@
       <c r="D19" s="2">
         <v>384</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>4.8381708709064908</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>1000</v>
       </c>
@@ -1093,8 +1309,12 @@
       <c r="D20" s="2">
         <v>428</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="E20">
+        <f t="shared" si="0"/>
+        <v>5.6239150135801852</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>2000</v>
       </c>
@@ -1104,8 +1324,12 @@
       <c r="D21" s="2">
         <v>324</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="E21">
+        <f t="shared" si="0"/>
+        <v>3.0522032641231664</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>5000</v>
       </c>
@@ -1115,8 +1339,12 @@
       <c r="D22" s="2">
         <v>246</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="E22">
+        <f t="shared" si="0"/>
+        <v>0.66000520205850688</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>10000</v>
       </c>
@@ -1126,8 +1354,12 @@
       <c r="D23" s="2">
         <v>232</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="E23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>20000</v>
       </c>
@@ -1137,8 +1369,12 @@
       <c r="D24" s="2">
         <v>236</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="E24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B25">
         <v>50000</v>
       </c>
@@ -1148,8 +1384,12 @@
       <c r="D25" s="2">
         <v>240</v>
       </c>
-    </row>
-    <row r="26" spans="1:4">
+      <c r="E25">
+        <f t="shared" si="0"/>
+        <v>0.29446513641412758</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>6</v>
       </c>
@@ -1162,8 +1402,12 @@
       <c r="D26" s="1">
         <v>228</v>
       </c>
-    </row>
-    <row r="27" spans="1:4">
+      <c r="E26">
+        <f t="shared" si="0"/>
+        <v>0.31024332356495116</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B27">
         <v>20</v>
       </c>
@@ -1173,8 +1417,12 @@
       <c r="D27" s="2">
         <v>224</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B28">
         <v>50</v>
       </c>
@@ -1184,8 +1432,12 @@
       <c r="D28" s="2">
         <v>228</v>
       </c>
-    </row>
-    <row r="29" spans="1:4">
+      <c r="E28">
+        <f t="shared" si="0"/>
+        <v>0.15373657332581911</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B29">
         <v>100</v>
       </c>
@@ -1195,8 +1447,12 @@
       <c r="D29" s="2">
         <v>232</v>
       </c>
-    </row>
-    <row r="30" spans="1:4">
+      <c r="E29">
+        <f t="shared" si="0"/>
+        <v>0.46130608137386797</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B30">
         <v>200</v>
       </c>
@@ -1206,8 +1462,12 @@
       <c r="D30" s="2">
         <v>240</v>
       </c>
-    </row>
-    <row r="31" spans="1:4">
+      <c r="E30">
+        <f t="shared" si="0"/>
+        <v>0.59926446754886409</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B31">
         <v>500</v>
       </c>
@@ -1217,8 +1477,12 @@
       <c r="D31" s="2">
         <v>244</v>
       </c>
-    </row>
-    <row r="32" spans="1:4">
+      <c r="E31">
+        <f t="shared" si="0"/>
+        <v>0.74283616009133158</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B32">
         <v>1000</v>
       </c>
@@ -1228,8 +1492,12 @@
       <c r="D32" s="2">
         <v>280</v>
       </c>
-    </row>
-    <row r="33" spans="2:4">
+      <c r="E32">
+        <f t="shared" si="0"/>
+        <v>1.784463686835309</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B33">
         <v>2000</v>
       </c>
@@ -1239,8 +1507,12 @@
       <c r="D33" s="2">
         <v>356</v>
       </c>
-    </row>
-    <row r="34" spans="2:4">
+      <c r="E33">
+        <f t="shared" si="0"/>
+        <v>3.8703030194484276</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B34">
         <v>5000</v>
       </c>
@@ -1250,8 +1522,12 @@
       <c r="D34" s="2">
         <v>392</v>
       </c>
-    </row>
-    <row r="35" spans="2:4">
+      <c r="E34">
+        <f t="shared" si="0"/>
+        <v>4.7070244004000692</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B35">
         <v>10000</v>
       </c>
@@ -1261,8 +1537,12 @@
       <c r="D35" s="2">
         <v>232</v>
       </c>
-    </row>
-    <row r="36" spans="2:4">
+      <c r="E35">
+        <f t="shared" si="0"/>
+        <v>0.15106275780891815</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B36">
         <v>20000</v>
       </c>
@@ -1272,8 +1552,12 @@
       <c r="D36" s="2">
         <v>228</v>
       </c>
-    </row>
-    <row r="37" spans="2:4">
+      <c r="E36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B37">
         <v>50000</v>
       </c>
@@ -1282,6 +1566,10 @@
       </c>
       <c r="D37" s="2">
         <v>224</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="0"/>
+        <v>-0.15373657332582014</v>
       </c>
     </row>
   </sheetData>
@@ -1291,16 +1579,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D37"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection sqref="A1:D38"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -1313,8 +1601,11 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1327,8 +1618,12 @@
       <c r="D2" s="1">
         <v>232</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2">
+        <f>20*LOG10(D2/C2)</f>
+        <v>0.15106275780891815</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>20</v>
       </c>
@@ -1338,8 +1633,12 @@
       <c r="D3">
         <v>232</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <f t="shared" ref="E3:E37" si="0">20*LOG10(D3/C3)</f>
+        <v>0.46130608137386797</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>50</v>
       </c>
@@ -1349,8 +1648,12 @@
       <c r="D4">
         <v>232</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>0.46130608137386797</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>100</v>
       </c>
@@ -1360,8 +1663,12 @@
       <c r="D5">
         <v>232</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>-0.14848036158413774</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>200</v>
       </c>
@@ -1371,8 +1678,12 @@
       <c r="D6">
         <v>232</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>500</v>
       </c>
@@ -1382,8 +1693,12 @@
       <c r="D7">
         <v>232</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>0.46130608137386797</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>1000</v>
       </c>
@@ -1393,8 +1708,12 @@
       <c r="D8">
         <v>240</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>0.14598477482998845</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>2000</v>
       </c>
@@ -1404,8 +1723,12 @@
       <c r="D9">
         <v>240</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>0.52205605128410293</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>5000</v>
       </c>
@@ -1415,8 +1738,12 @@
       <c r="D10">
         <v>236</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>0.14848036158413749</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>10000</v>
       </c>
@@ -1426,8 +1753,12 @@
       <c r="D11">
         <v>208</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>-0.94849299856276226</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>20000</v>
       </c>
@@ -1437,8 +1768,12 @@
       <c r="D12">
         <v>192</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>-2.0817719527035967</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>50000</v>
       </c>
@@ -1448,8 +1783,12 @@
       <c r="D13">
         <v>192</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>-1.9382002601611279</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>5</v>
       </c>
@@ -1462,8 +1801,12 @@
       <c r="D14" s="1">
         <v>232</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>0.46130608137386797</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>20</v>
       </c>
@@ -1473,8 +1816,12 @@
       <c r="D15" s="2">
         <v>232</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>-0.14848036158413774</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>50</v>
       </c>
@@ -1484,8 +1831,12 @@
       <c r="D16" s="2">
         <v>228</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>-0.15106275780891798</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>100</v>
       </c>
@@ -1495,8 +1846,12 @@
       <c r="D17" s="2">
         <v>232</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>0.15106275780891815</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>200</v>
       </c>
@@ -1506,8 +1861,12 @@
       <c r="D18" s="2">
         <v>228</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>0.15373657332581911</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>500</v>
       </c>
@@ -1517,8 +1876,12 @@
       <c r="D19" s="2">
         <v>244</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>0.43803682895659496</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>1000</v>
       </c>
@@ -1528,8 +1891,12 @@
       <c r="D20" s="2">
         <v>232</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="E20">
+        <f t="shared" si="0"/>
+        <v>0.46130608137386797</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>2000</v>
       </c>
@@ -1539,8 +1906,12 @@
       <c r="D21" s="2">
         <v>236</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="E21">
+        <f t="shared" si="0"/>
+        <v>0.6097864429580071</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>5000</v>
       </c>
@@ -1550,8 +1921,12 @@
       <c r="D22" s="2">
         <v>236</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="E22">
+        <f t="shared" si="0"/>
+        <v>0.45327969271887569</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>10000</v>
       </c>
@@ -1561,8 +1936,12 @@
       <c r="D23" s="2">
         <v>204</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="E23">
+        <f t="shared" si="0"/>
+        <v>-1.1171563493000185</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>20000</v>
       </c>
@@ -1572,8 +1951,12 @@
       <c r="D24" s="2">
         <v>216</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="E24">
+        <f t="shared" si="0"/>
+        <v>-0.91514981121350236</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B25">
         <v>50000</v>
       </c>
@@ -1583,8 +1966,12 @@
       <c r="D25" s="2">
         <v>196</v>
       </c>
-    </row>
-    <row r="26" spans="1:4">
+      <c r="E25">
+        <f t="shared" si="0"/>
+        <v>-1.4646382706884722</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>6</v>
       </c>
@@ -1597,8 +1984,12 @@
       <c r="D26" s="1">
         <v>240</v>
       </c>
-    </row>
-    <row r="27" spans="1:4">
+      <c r="E26">
+        <f t="shared" si="0"/>
+        <v>0.75577121778799505</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B27">
         <v>20</v>
       </c>
@@ -1608,8 +1999,12 @@
       <c r="D27" s="2">
         <v>228</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <f t="shared" si="0"/>
+        <v>-0.44552789422304506</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B28">
         <v>50</v>
       </c>
@@ -1619,8 +2014,12 @@
       <c r="D28" s="2">
         <v>224</v>
       </c>
-    </row>
-    <row r="29" spans="1:4">
+      <c r="E28">
+        <f t="shared" si="0"/>
+        <v>-0.15373657332582014</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B29">
         <v>100</v>
       </c>
@@ -1630,8 +2029,12 @@
       <c r="D29" s="2">
         <v>228</v>
       </c>
-    </row>
-    <row r="30" spans="1:4">
+      <c r="E29">
+        <f t="shared" si="0"/>
+        <v>0.15373657332581911</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B30">
         <v>200</v>
       </c>
@@ -1641,8 +2044,12 @@
       <c r="D30" s="2">
         <v>236</v>
       </c>
-    </row>
-    <row r="31" spans="1:4">
+      <c r="E30">
+        <f t="shared" si="0"/>
+        <v>0.14848036158413749</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B31">
         <v>500</v>
       </c>
@@ -1652,8 +2059,12 @@
       <c r="D31" s="2">
         <v>240</v>
       </c>
-    </row>
-    <row r="32" spans="1:4">
+      <c r="E31">
+        <f t="shared" si="0"/>
+        <v>0.75577121778799505</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B32">
         <v>1000</v>
       </c>
@@ -1663,8 +2074,12 @@
       <c r="D32" s="2">
         <v>236</v>
       </c>
-    </row>
-    <row r="33" spans="2:4">
+      <c r="E32">
+        <f t="shared" si="0"/>
+        <v>0.14848036158413749</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B33">
         <v>2000</v>
       </c>
@@ -1674,8 +2089,12 @@
       <c r="D33" s="2">
         <v>252</v>
       </c>
-    </row>
-    <row r="34" spans="2:4">
+      <c r="E33">
+        <f t="shared" si="0"/>
+        <v>0.13897719910655648</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B34">
         <v>5000</v>
       </c>
@@ -1685,8 +2104,12 @@
       <c r="D34" s="2">
         <v>240</v>
       </c>
-    </row>
-    <row r="35" spans="2:4">
+      <c r="E34">
+        <f t="shared" si="0"/>
+        <v>0.29446513641412758</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B35">
         <v>10000</v>
       </c>
@@ -1696,8 +2119,12 @@
       <c r="D35" s="2">
         <v>192</v>
       </c>
-    </row>
-    <row r="36" spans="2:4">
+      <c r="E35">
+        <f t="shared" si="0"/>
+        <v>-1.4926723659380841</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B36">
         <v>20000</v>
       </c>
@@ -1707,8 +2134,12 @@
       <c r="D36" s="2">
         <v>220</v>
       </c>
-    </row>
-    <row r="37" spans="2:4">
+      <c r="E36">
+        <f t="shared" si="0"/>
+        <v>-0.89934291033046376</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B37">
         <v>50000</v>
       </c>
@@ -1717,6 +2148,10 @@
       </c>
       <c r="D37" s="2">
         <v>200</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="0"/>
+        <v>-1.8684337032447018</v>
       </c>
     </row>
   </sheetData>
@@ -1726,16 +2161,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D37"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -1748,8 +2183,11 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1762,8 +2200,12 @@
       <c r="D2" s="1">
         <v>224</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2">
+        <f>20*LOG10(D2/C2)</f>
+        <v>-0.15373657332582014</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>20</v>
       </c>
@@ -1773,8 +2215,12 @@
       <c r="D3">
         <v>228</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <f t="shared" ref="E3:E37" si="0">20*LOG10(D3/C3)</f>
+        <v>0.31024332356495116</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>50</v>
       </c>
@@ -1784,8 +2230,12 @@
       <c r="D4">
         <v>224</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>0.15650675023913052</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>100</v>
       </c>
@@ -1795,8 +2245,12 @@
       <c r="D5">
         <v>192</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>-1.182429042373133</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>200</v>
       </c>
@@ -1806,8 +2260,12 @@
       <c r="D6">
         <v>160</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>-2.7660539633256285</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>500</v>
       </c>
@@ -1817,8 +2275,12 @@
       <c r="D7">
         <v>164</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>-2.7080834057292993</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>1000</v>
       </c>
@@ -1828,8 +2290,12 @@
       <c r="D8">
         <v>200</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>-1.583624920952496</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>2000</v>
       </c>
@@ -1839,8 +2305,12 @@
       <c r="D9">
         <v>224</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>5000</v>
       </c>
@@ -1850,8 +2320,12 @@
       <c r="D10">
         <v>228</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>-0.73033667651524981</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>10000</v>
       </c>
@@ -1861,8 +2335,12 @@
       <c r="D11">
         <v>192</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>-1.7922154853311389</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>20000</v>
       </c>
@@ -1872,8 +2350,12 @@
       <c r="D12">
         <v>216</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>-0.62068467479937572</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>50000</v>
       </c>
@@ -1883,8 +2365,12 @@
       <c r="D13">
         <v>224</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>-0.30479933113473695</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>5</v>
       </c>
@@ -1897,8 +2383,12 @@
       <c r="D14" s="1">
         <v>220</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>-0.46130608137386869</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>20</v>
       </c>
@@ -1908,8 +2398,12 @@
       <c r="D15" s="2">
         <v>208</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>-0.48718691718889384</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>50</v>
       </c>
@@ -1919,8 +2413,12 @@
       <c r="D16" s="2">
         <v>162</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>-3.1194594069653747</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>100</v>
       </c>
@@ -1930,8 +2428,12 @@
       <c r="D17" s="2">
         <v>134</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>-4.4628643993871036</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>200</v>
       </c>
@@ -1941,8 +2443,12 @@
       <c r="D18" s="2">
         <v>124</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>-5.58980635615743</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>500</v>
       </c>
@@ -1952,8 +2458,12 @@
       <c r="D19" s="2">
         <v>120</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>-5.4213354457307599</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>1000</v>
       </c>
@@ -1963,8 +2473,12 @@
       <c r="D20" s="2">
         <v>120</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="E20">
+        <f t="shared" si="0"/>
+        <v>-5.7261347768654964</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>2000</v>
       </c>
@@ -1974,8 +2488,12 @@
       <c r="D21" s="2">
         <v>132</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="E21">
+        <f t="shared" si="0"/>
+        <v>-4.8982810737009954</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>5000</v>
       </c>
@@ -1985,8 +2503,12 @@
       <c r="D22" s="2">
         <v>224</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="E22">
+        <f t="shared" si="0"/>
+        <v>-0.5992644675488642</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>10000</v>
       </c>
@@ -1996,8 +2518,12 @@
       <c r="D23" s="2">
         <v>228</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="E23">
+        <f t="shared" si="0"/>
+        <v>-0.15106275780891798</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>20000</v>
       </c>
@@ -2007,8 +2533,12 @@
       <c r="D24" s="2">
         <v>228</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="E24">
+        <f t="shared" si="0"/>
+        <v>-0.15106275780891798</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B25">
         <v>50000</v>
       </c>
@@ -2018,8 +2548,12 @@
       <c r="D25" s="2">
         <v>228</v>
       </c>
-    </row>
-    <row r="26" spans="1:4">
+      <c r="E25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>6</v>
       </c>
@@ -2032,8 +2566,12 @@
       <c r="D26" s="1">
         <v>232</v>
       </c>
-    </row>
-    <row r="27" spans="1:4">
+      <c r="E26">
+        <f t="shared" si="0"/>
+        <v>-0.43803682895659551</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B27">
         <v>20</v>
       </c>
@@ -2043,8 +2581,12 @@
       <c r="D27" s="2">
         <v>232</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <f t="shared" si="0"/>
+        <v>0.46130608137386797</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B28">
         <v>50</v>
       </c>
@@ -2054,8 +2596,12 @@
       <c r="D28" s="2">
         <v>220</v>
       </c>
-    </row>
-    <row r="29" spans="1:4">
+      <c r="E28">
+        <f t="shared" si="0"/>
+        <v>-0.46130608137386869</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B29">
         <v>100</v>
       </c>
@@ -2065,8 +2611,12 @@
       <c r="D29" s="2">
         <v>190</v>
       </c>
-    </row>
-    <row r="30" spans="1:4">
+      <c r="E29">
+        <f t="shared" si="0"/>
+        <v>-1.2733815973875453</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B30">
         <v>200</v>
       </c>
@@ -2076,8 +2626,12 @@
       <c r="D30" s="2">
         <v>152</v>
       </c>
-    </row>
-    <row r="31" spans="1:4">
+      <c r="E30">
+        <f t="shared" si="0"/>
+        <v>-3.2115818575486736</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B31">
         <v>500</v>
       </c>
@@ -2087,8 +2641,12 @@
       <c r="D31" s="2">
         <v>154</v>
       </c>
-    </row>
-    <row r="32" spans="1:4">
+      <c r="E31">
+        <f t="shared" si="0"/>
+        <v>-3.2545459499539948</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B32">
         <v>1000</v>
       </c>
@@ -2098,8 +2656,12 @@
       <c r="D32" s="2">
         <v>188</v>
       </c>
-    </row>
-    <row r="33" spans="2:4">
+      <c r="E32">
+        <f t="shared" si="0"/>
+        <v>-1.9750830741285346</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B33">
         <v>2000</v>
       </c>
@@ -2109,8 +2671,12 @@
       <c r="D33" s="2">
         <v>212</v>
       </c>
-    </row>
-    <row r="34" spans="2:4">
+      <c r="E33">
+        <f t="shared" si="0"/>
+        <v>-0.78304247924296422</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B34">
         <v>5000</v>
       </c>
@@ -2120,8 +2686,12 @@
       <c r="D34" s="2">
         <v>224</v>
       </c>
-    </row>
-    <row r="35" spans="2:4">
+      <c r="E34">
+        <f t="shared" si="0"/>
+        <v>-0.30479933113473695</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B35">
         <v>10000</v>
       </c>
@@ -2131,8 +2701,12 @@
       <c r="D35" s="2">
         <v>224</v>
       </c>
-    </row>
-    <row r="36" spans="2:4">
+      <c r="E35">
+        <f t="shared" si="0"/>
+        <v>-0.15373657332582014</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B36">
         <v>20000</v>
       </c>
@@ -2142,8 +2716,12 @@
       <c r="D36" s="2">
         <v>228</v>
       </c>
-    </row>
-    <row r="37" spans="2:4">
+      <c r="E36">
+        <f t="shared" si="0"/>
+        <v>-0.15106275780891798</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B37">
         <v>50000</v>
       </c>
@@ -2152,6 +2730,10 @@
       </c>
       <c r="D37" s="2">
         <v>228</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="0"/>
+        <v>-0.15106275780891798</v>
       </c>
     </row>
   </sheetData>
@@ -2161,27 +2743,30 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="E17" sqref="E1:E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.26953125" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>7</v>
       </c>
       <c r="C1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>10</v>
       </c>
@@ -2195,8 +2780,12 @@
         <f>C2/B2</f>
         <v>1.4107142857142858</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2">
+        <f>20*LOG10(D2)</f>
+        <v>2.9887812856848206</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>20</v>
       </c>
@@ -2210,8 +2799,12 @@
         <f t="shared" ref="D3:D17" si="0">C3/B3</f>
         <v>3.2363636363636363</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <f t="shared" ref="E3:E17" si="1">20*LOG10(D3)</f>
+        <v>10.201146256293004</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>50</v>
       </c>
@@ -2225,8 +2818,12 @@
         <f t="shared" si="0"/>
         <v>7.6363636363636367</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4">
+        <f t="shared" si="1"/>
+        <v>17.657732018073133</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>100</v>
       </c>
@@ -2240,8 +2837,12 @@
         <f t="shared" si="0"/>
         <v>13.333333333333334</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <f t="shared" si="1"/>
+        <v>22.498774732165998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>200</v>
       </c>
@@ -2255,8 +2856,12 @@
         <f t="shared" si="0"/>
         <v>18.181818181818183</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6">
+        <f t="shared" si="1"/>
+        <v>25.192746210115121</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>500</v>
       </c>
@@ -2270,8 +2875,12 @@
         <f t="shared" si="0"/>
         <v>20.714285714285715</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7">
+        <f t="shared" si="1"/>
+        <v>26.325399244414363</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>1000</v>
       </c>
@@ -2285,8 +2894,12 @@
         <f t="shared" si="0"/>
         <v>21.428571428571427</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8">
+        <f t="shared" si="1"/>
+        <v>26.619864380828488</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>2000</v>
       </c>
@@ -2300,8 +2913,12 @@
         <f t="shared" si="0"/>
         <v>21.785714285714285</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9">
+        <f t="shared" si="1"/>
+        <v>26.763436073370954</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>5000</v>
       </c>
@@ -2315,8 +2932,12 @@
         <f t="shared" si="0"/>
         <v>21.964285714285715</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10">
+        <f t="shared" si="1"/>
+        <v>26.834341688663951</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>10000</v>
       </c>
@@ -2330,8 +2951,12 @@
         <f t="shared" si="0"/>
         <v>21.03448275862069</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11">
+        <f t="shared" si="1"/>
+        <v>26.458636742236223</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>20000</v>
       </c>
@@ -2345,8 +2970,12 @@
         <f t="shared" si="0"/>
         <v>20.17543859649123</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12">
+        <f t="shared" si="1"/>
+        <v>26.096459693622407</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>50000</v>
       </c>
@@ -2360,8 +2989,12 @@
         <f t="shared" si="0"/>
         <v>14.642857142857142</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13">
+        <f t="shared" si="1"/>
+        <v>23.312516507550324</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>100000</v>
       </c>
@@ -2375,8 +3008,12 @@
         <f t="shared" si="0"/>
         <v>7.6785714285714288</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="E14">
+        <f t="shared" si="1"/>
+        <v>17.705608571467721</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>200000</v>
       </c>
@@ -2390,8 +3027,12 @@
         <f t="shared" si="0"/>
         <v>2.7142857142857144</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15">
+        <f t="shared" si="1"/>
+        <v>8.6731112187714423</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>500000</v>
       </c>
@@ -2405,8 +3046,12 @@
         <f t="shared" si="0"/>
         <v>0.40714285714285714</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="E16">
+        <f t="shared" si="1"/>
+        <v>-7.8050636001149334</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>1000000</v>
       </c>
@@ -2419,6 +3064,10 @@
       <c r="D17">
         <f t="shared" si="0"/>
         <v>0.10714285714285714</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="1"/>
+        <v>-19.400735532451137</v>
       </c>
     </row>
   </sheetData>
@@ -2429,27 +3078,30 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.26953125" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>7</v>
       </c>
       <c r="C1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>10</v>
       </c>
@@ -2463,8 +3115,12 @@
         <f>C2/B2</f>
         <v>0.5982142857142857</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2">
+        <f>20*LOG10(D2)</f>
+        <v>-4.4628643993871036</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>20</v>
       </c>
@@ -2478,8 +3134,12 @@
         <f t="shared" ref="D3:D17" si="0">C3/B3</f>
         <v>0.96363636363636362</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <f t="shared" ref="E3:E17" si="1">20*LOG10(D3)</f>
+        <v>-0.32173639786909614</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>50</v>
       </c>
@@ -2493,8 +3153,12 @@
         <f t="shared" si="0"/>
         <v>1.9454545454545455</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4">
+        <f t="shared" si="1"/>
+        <v>5.7804217638193167</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>100</v>
       </c>
@@ -2508,8 +3172,12 @@
         <f t="shared" si="0"/>
         <v>3.3636363636363638</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <f t="shared" si="1"/>
+        <v>10.5361807781754</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>200</v>
       </c>
@@ -2523,8 +3191,12 @@
         <f t="shared" si="0"/>
         <v>4.7272727272727275</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6">
+        <f t="shared" si="1"/>
+        <v>13.492213169531482</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>500</v>
       </c>
@@ -2538,8 +3210,12 @@
         <f t="shared" si="0"/>
         <v>5.5357142857142856</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7">
+        <f t="shared" si="1"/>
+        <v>14.863473336561446</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>1000</v>
       </c>
@@ -2553,8 +3229,12 @@
         <f t="shared" si="0"/>
         <v>5.7142857142857144</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8">
+        <f t="shared" si="1"/>
+        <v>15.139239026274112</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>2000</v>
       </c>
@@ -2568,8 +3248,12 @@
         <f t="shared" si="0"/>
         <v>5.5172413793103452</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9">
+        <f t="shared" si="1"/>
+        <v>14.834439695139373</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>5000</v>
       </c>
@@ -2583,8 +3267,12 @@
         <f t="shared" si="0"/>
         <v>5.6896551724137927</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10">
+        <f t="shared" si="1"/>
+        <v>15.101718926299004</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>10000</v>
       </c>
@@ -2598,8 +3286,12 @@
         <f t="shared" si="0"/>
         <v>5.6034482758620694</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11">
+        <f t="shared" si="1"/>
+        <v>14.969107348318742</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>20000</v>
       </c>
@@ -2613,8 +3305,12 @@
         <f t="shared" si="0"/>
         <v>5.7894736842105265</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12">
+        <f t="shared" si="1"/>
+        <v>15.252781684107921</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>50000</v>
       </c>
@@ -2628,8 +3324,12 @@
         <f t="shared" si="0"/>
         <v>5.3508771929824563</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13">
+        <f t="shared" si="1"/>
+        <v>14.568499673485888</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>100000</v>
       </c>
@@ -2643,8 +3343,12 @@
         <f t="shared" si="0"/>
         <v>4.3859649122807021</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="E14">
+        <f t="shared" si="1"/>
+        <v>12.841303059990924</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>200000</v>
       </c>
@@ -2658,8 +3362,12 @@
         <f t="shared" si="0"/>
         <v>2.6896551724137931</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15">
+        <f t="shared" si="1"/>
+        <v>8.5939320958304872</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>500000</v>
       </c>
@@ -2673,8 +3381,12 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="E16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>1000000</v>
       </c>
@@ -2687,11 +3399,16 @@
       <c r="D17">
         <f t="shared" si="0"/>
         <v>0.375</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="1"/>
+        <v>-8.5193746454456232</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="400" yWindow="80" windowWidth="13410" windowHeight="4200" activeTab="4"/>
+    <workbookView xWindow="400" yWindow="80" windowWidth="13410" windowHeight="4200"/>
   </bookViews>
   <sheets>
     <sheet name="25%" sheetId="1" r:id="rId1"/>
@@ -998,15 +998,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:K37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -1023,7 +1023,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1040,8 +1040,21 @@
         <f>20*LOG10(D2/C2)</f>
         <v>0.30479933113473812</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H2" s="1">
+        <v>10</v>
+      </c>
+      <c r="I2" s="1">
+        <v>224</v>
+      </c>
+      <c r="J2" s="1">
+        <v>232</v>
+      </c>
+      <c r="K2">
+        <f>ROUND(E2, 3)</f>
+        <v>0.30499999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>20</v>
       </c>
@@ -1055,8 +1068,21 @@
         <f t="shared" ref="E3:E37" si="0">20*LOG10(D3/C3)</f>
         <v>0.14848036158413749</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H3">
+        <v>20</v>
+      </c>
+      <c r="I3">
+        <v>232</v>
+      </c>
+      <c r="J3">
+        <v>236</v>
+      </c>
+      <c r="K3">
+        <f>ROUND(E3, 3)</f>
+        <v>0.14799999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>50</v>
       </c>
@@ -1070,8 +1096,21 @@
         <f t="shared" si="0"/>
         <v>0.71825111781288897</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H4">
+        <v>50</v>
+      </c>
+      <c r="I4">
+        <v>232</v>
+      </c>
+      <c r="J4">
+        <v>252</v>
+      </c>
+      <c r="K4">
+        <f>ROUND(E4, 3)</f>
+        <v>0.71799999999999997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>100</v>
       </c>
@@ -1085,8 +1124,21 @@
         <f t="shared" si="0"/>
         <v>1.9382002601611283</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H5">
+        <v>100</v>
+      </c>
+      <c r="I5">
+        <v>224</v>
+      </c>
+      <c r="J5">
+        <v>280</v>
+      </c>
+      <c r="K5">
+        <f>ROUND(E5, 3)</f>
+        <v>1.9379999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>200</v>
       </c>
@@ -1100,8 +1152,21 @@
         <f t="shared" si="0"/>
         <v>4.1805463430133791</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H6">
+        <v>200</v>
+      </c>
+      <c r="I6">
+        <v>220</v>
+      </c>
+      <c r="J6">
+        <v>356</v>
+      </c>
+      <c r="K6">
+        <f>ROUND(E6, 3)</f>
+        <v>4.181</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>500</v>
       </c>
@@ -1115,8 +1180,21 @@
         <f t="shared" si="0"/>
         <v>4.4685027570262283</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H7">
+        <v>500</v>
+      </c>
+      <c r="I7">
+        <v>220</v>
+      </c>
+      <c r="J7">
+        <v>368</v>
+      </c>
+      <c r="K7">
+        <f>ROUND(E7, 3)</f>
+        <v>4.4690000000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>1000</v>
       </c>
@@ -1130,8 +1208,21 @@
         <f t="shared" si="0"/>
         <v>1.1953641000697954</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H8">
+        <v>1000</v>
+      </c>
+      <c r="I8">
+        <v>244</v>
+      </c>
+      <c r="J8">
+        <v>280</v>
+      </c>
+      <c r="K8">
+        <f>ROUND(E8, 3)</f>
+        <v>1.1950000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>2000</v>
       </c>
@@ -1145,8 +1236,21 @@
         <f t="shared" si="0"/>
         <v>0.57927391870633116</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H9">
+        <v>2000</v>
+      </c>
+      <c r="I9">
+        <v>232</v>
+      </c>
+      <c r="J9">
+        <v>248</v>
+      </c>
+      <c r="K9">
+        <f>ROUND(E9, 3)</f>
+        <v>0.57899999999999996</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>5000</v>
       </c>
@@ -1160,8 +1264,21 @@
         <f t="shared" si="0"/>
         <v>0.43803682895659496</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H10">
+        <v>5000</v>
+      </c>
+      <c r="I10">
+        <v>232</v>
+      </c>
+      <c r="J10">
+        <v>244</v>
+      </c>
+      <c r="K10">
+        <f>ROUND(E10, 3)</f>
+        <v>0.438</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>10000</v>
       </c>
@@ -1175,8 +1292,21 @@
         <f t="shared" si="0"/>
         <v>0.29446513641412758</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H11">
+        <v>10000</v>
+      </c>
+      <c r="I11">
+        <v>232</v>
+      </c>
+      <c r="J11">
+        <v>240</v>
+      </c>
+      <c r="K11">
+        <f>ROUND(E11, 3)</f>
+        <v>0.29399999999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>20000</v>
       </c>
@@ -1190,8 +1320,21 @@
         <f t="shared" si="0"/>
         <v>-0.5992644675488642</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H12">
+        <v>20000</v>
+      </c>
+      <c r="I12">
+        <v>240</v>
+      </c>
+      <c r="J12">
+        <v>224</v>
+      </c>
+      <c r="K12">
+        <f>ROUND(E12, 3)</f>
+        <v>-0.59899999999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>50000</v>
       </c>
@@ -1205,8 +1348,21 @@
         <f t="shared" si="0"/>
         <v>-0.15106275780891798</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H13">
+        <v>50000</v>
+      </c>
+      <c r="I13">
+        <v>232</v>
+      </c>
+      <c r="J13">
+        <v>228</v>
+      </c>
+      <c r="K13">
+        <f>ROUND(E13, 3)</f>
+        <v>-0.151</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>5</v>
       </c>
@@ -1223,8 +1379,21 @@
         <f t="shared" si="0"/>
         <v>0.30479933113473812</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H14" s="1">
+        <v>10</v>
+      </c>
+      <c r="I14" s="1">
+        <v>224</v>
+      </c>
+      <c r="J14" s="1">
+        <v>232</v>
+      </c>
+      <c r="K14">
+        <f>ROUND(E14, 3)</f>
+        <v>0.30499999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>20</v>
       </c>
@@ -1238,8 +1407,21 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H15">
+        <v>20</v>
+      </c>
+      <c r="I15" s="2">
+        <v>228</v>
+      </c>
+      <c r="J15" s="2">
+        <v>228</v>
+      </c>
+      <c r="K15">
+        <f>ROUND(E15, 3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>50</v>
       </c>
@@ -1253,8 +1435,21 @@
         <f t="shared" si="0"/>
         <v>0.15650675023913052</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H16">
+        <v>50</v>
+      </c>
+      <c r="I16" s="2">
+        <v>220</v>
+      </c>
+      <c r="J16" s="2">
+        <v>224</v>
+      </c>
+      <c r="K16">
+        <f>ROUND(E16, 3)</f>
+        <v>0.157</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>100</v>
       </c>
@@ -1268,8 +1463,21 @@
         <f t="shared" si="0"/>
         <v>0.45327969271887569</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H17">
+        <v>100</v>
+      </c>
+      <c r="I17" s="2">
+        <v>224</v>
+      </c>
+      <c r="J17" s="2">
+        <v>236</v>
+      </c>
+      <c r="K17">
+        <f>ROUND(E17, 3)</f>
+        <v>0.45300000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>200</v>
       </c>
@@ -1283,8 +1491,21 @@
         <f t="shared" si="0"/>
         <v>1.7142422641316524</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H18">
+        <v>200</v>
+      </c>
+      <c r="I18" s="2">
+        <v>220</v>
+      </c>
+      <c r="J18" s="2">
+        <v>268</v>
+      </c>
+      <c r="K18">
+        <f>ROUND(E18, 3)</f>
+        <v>1.714</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>500</v>
       </c>
@@ -1298,8 +1519,21 @@
         <f t="shared" si="0"/>
         <v>4.8381708709064908</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H19">
+        <v>500</v>
+      </c>
+      <c r="I19" s="2">
+        <v>220</v>
+      </c>
+      <c r="J19" s="2">
+        <v>384</v>
+      </c>
+      <c r="K19">
+        <f>ROUND(E19, 3)</f>
+        <v>4.8380000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>1000</v>
       </c>
@@ -1313,8 +1547,21 @@
         <f t="shared" si="0"/>
         <v>5.6239150135801852</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H20">
+        <v>1000</v>
+      </c>
+      <c r="I20" s="2">
+        <v>224</v>
+      </c>
+      <c r="J20" s="2">
+        <v>428</v>
+      </c>
+      <c r="K20">
+        <f>ROUND(E20, 3)</f>
+        <v>5.6239999999999997</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>2000</v>
       </c>
@@ -1328,8 +1575,21 @@
         <f t="shared" si="0"/>
         <v>3.0522032641231664</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H21">
+        <v>2000</v>
+      </c>
+      <c r="I21" s="2">
+        <v>228</v>
+      </c>
+      <c r="J21" s="2">
+        <v>324</v>
+      </c>
+      <c r="K21">
+        <f>ROUND(E21, 3)</f>
+        <v>3.052</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>5000</v>
       </c>
@@ -1343,8 +1603,21 @@
         <f t="shared" si="0"/>
         <v>0.66000520205850688</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H22">
+        <v>5000</v>
+      </c>
+      <c r="I22" s="2">
+        <v>228</v>
+      </c>
+      <c r="J22" s="2">
+        <v>246</v>
+      </c>
+      <c r="K22">
+        <f>ROUND(E22, 3)</f>
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>10000</v>
       </c>
@@ -1358,8 +1631,21 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H23">
+        <v>10000</v>
+      </c>
+      <c r="I23" s="2">
+        <v>232</v>
+      </c>
+      <c r="J23" s="2">
+        <v>232</v>
+      </c>
+      <c r="K23">
+        <f>ROUND(E23, 3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>20000</v>
       </c>
@@ -1373,8 +1659,21 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H24">
+        <v>20000</v>
+      </c>
+      <c r="I24" s="2">
+        <v>236</v>
+      </c>
+      <c r="J24" s="2">
+        <v>236</v>
+      </c>
+      <c r="K24">
+        <f>ROUND(E24, 3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B25">
         <v>50000</v>
       </c>
@@ -1388,8 +1687,21 @@
         <f t="shared" si="0"/>
         <v>0.29446513641412758</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H25">
+        <v>50000</v>
+      </c>
+      <c r="I25" s="2">
+        <v>232</v>
+      </c>
+      <c r="J25" s="2">
+        <v>240</v>
+      </c>
+      <c r="K25">
+        <f>ROUND(E25, 3)</f>
+        <v>0.29399999999999998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>6</v>
       </c>
@@ -1406,8 +1718,21 @@
         <f t="shared" si="0"/>
         <v>0.31024332356495116</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H26" s="1">
+        <v>10</v>
+      </c>
+      <c r="I26" s="1">
+        <v>220</v>
+      </c>
+      <c r="J26" s="1">
+        <v>228</v>
+      </c>
+      <c r="K26">
+        <f>ROUND(E26, 3)</f>
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B27">
         <v>20</v>
       </c>
@@ -1421,8 +1746,21 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H27">
+        <v>20</v>
+      </c>
+      <c r="I27" s="2">
+        <v>224</v>
+      </c>
+      <c r="J27" s="2">
+        <v>224</v>
+      </c>
+      <c r="K27">
+        <f>ROUND(E27, 3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B28">
         <v>50</v>
       </c>
@@ -1436,8 +1774,21 @@
         <f t="shared" si="0"/>
         <v>0.15373657332581911</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H28">
+        <v>50</v>
+      </c>
+      <c r="I28" s="2">
+        <v>224</v>
+      </c>
+      <c r="J28" s="2">
+        <v>228</v>
+      </c>
+      <c r="K28">
+        <f>ROUND(E28, 3)</f>
+        <v>0.154</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B29">
         <v>100</v>
       </c>
@@ -1451,8 +1802,21 @@
         <f t="shared" si="0"/>
         <v>0.46130608137386797</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H29">
+        <v>100</v>
+      </c>
+      <c r="I29" s="2">
+        <v>220</v>
+      </c>
+      <c r="J29" s="2">
+        <v>232</v>
+      </c>
+      <c r="K29">
+        <f>ROUND(E29, 3)</f>
+        <v>0.46100000000000002</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B30">
         <v>200</v>
       </c>
@@ -1466,8 +1830,21 @@
         <f t="shared" si="0"/>
         <v>0.59926446754886409</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H30">
+        <v>200</v>
+      </c>
+      <c r="I30" s="2">
+        <v>224</v>
+      </c>
+      <c r="J30" s="2">
+        <v>240</v>
+      </c>
+      <c r="K30">
+        <f>ROUND(E30, 3)</f>
+        <v>0.59899999999999998</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B31">
         <v>500</v>
       </c>
@@ -1481,8 +1858,21 @@
         <f t="shared" si="0"/>
         <v>0.74283616009133158</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H31">
+        <v>500</v>
+      </c>
+      <c r="I31" s="2">
+        <v>224</v>
+      </c>
+      <c r="J31" s="2">
+        <v>244</v>
+      </c>
+      <c r="K31">
+        <f>ROUND(E31, 3)</f>
+        <v>0.74299999999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B32">
         <v>1000</v>
       </c>
@@ -1496,8 +1886,21 @@
         <f t="shared" si="0"/>
         <v>1.784463686835309</v>
       </c>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="H32">
+        <v>1000</v>
+      </c>
+      <c r="I32" s="2">
+        <v>228</v>
+      </c>
+      <c r="J32" s="2">
+        <v>280</v>
+      </c>
+      <c r="K32">
+        <f>ROUND(E32, 3)</f>
+        <v>1.784</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B33">
         <v>2000</v>
       </c>
@@ -1511,8 +1914,21 @@
         <f t="shared" si="0"/>
         <v>3.8703030194484276</v>
       </c>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="H33">
+        <v>2000</v>
+      </c>
+      <c r="I33" s="2">
+        <v>228</v>
+      </c>
+      <c r="J33" s="2">
+        <v>356</v>
+      </c>
+      <c r="K33">
+        <f>ROUND(E33, 3)</f>
+        <v>3.87</v>
+      </c>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B34">
         <v>5000</v>
       </c>
@@ -1526,8 +1942,21 @@
         <f t="shared" si="0"/>
         <v>4.7070244004000692</v>
       </c>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="H34">
+        <v>5000</v>
+      </c>
+      <c r="I34" s="2">
+        <v>228</v>
+      </c>
+      <c r="J34" s="2">
+        <v>392</v>
+      </c>
+      <c r="K34">
+        <f>ROUND(E34, 3)</f>
+        <v>4.7069999999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B35">
         <v>10000</v>
       </c>
@@ -1541,8 +1970,21 @@
         <f t="shared" si="0"/>
         <v>0.15106275780891815</v>
       </c>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="H35">
+        <v>10000</v>
+      </c>
+      <c r="I35" s="2">
+        <v>228</v>
+      </c>
+      <c r="J35" s="2">
+        <v>232</v>
+      </c>
+      <c r="K35">
+        <f>ROUND(E35, 3)</f>
+        <v>0.151</v>
+      </c>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B36">
         <v>20000</v>
       </c>
@@ -1556,8 +1998,21 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="H36">
+        <v>20000</v>
+      </c>
+      <c r="I36" s="2">
+        <v>228</v>
+      </c>
+      <c r="J36" s="2">
+        <v>228</v>
+      </c>
+      <c r="K36">
+        <f>ROUND(E36, 3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B37">
         <v>50000</v>
       </c>
@@ -1570,6 +2025,19 @@
       <c r="E37">
         <f t="shared" si="0"/>
         <v>-0.15373657332582014</v>
+      </c>
+      <c r="H37">
+        <v>50000</v>
+      </c>
+      <c r="I37" s="2">
+        <v>228</v>
+      </c>
+      <c r="J37" s="2">
+        <v>224</v>
+      </c>
+      <c r="K37">
+        <f>ROUND(E37, 3)</f>
+        <v>-0.154</v>
       </c>
     </row>
   </sheetData>
@@ -3081,8 +3549,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
